--- a/Digital_Air_Conditional_Screen/Project Managment/Doc/SRS_4.xlsx
+++ b/Digital_Air_Conditional_Screen/Project Managment/Doc/SRS_4.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13515" windowHeight="2895"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>CRS document</t>
   </si>
@@ -156,6 +152,12 @@
 First line            "Temperature=23 "
 Second line      "                               "
 </t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>EEprom Module</t>
   </si>
 </sst>
 </file>
@@ -431,8 +433,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A5:C24" totalsRowShown="0">
-  <autoFilter ref="A5:C24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A5:C25" totalsRowShown="0">
+  <autoFilter ref="A5:C25"/>
   <sortState ref="A6:C16">
     <sortCondition ref="C5:C16"/>
   </sortState>
@@ -708,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -910,6 +912,14 @@
       </c>
       <c r="C24" s="19"/>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Digital_Air_Conditional_Screen/Project Managment/Doc/SRS_4.xlsx
+++ b/Digital_Air_Conditional_Screen/Project Managment/Doc/SRS_4.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\Desktop\SOFTWARE ENGINEERING\Digital-Air-Conditional\Digital_Air_Conditional_Screen\Project Managment\Doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13515" windowHeight="2895"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>CRS document</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Project name</t>
   </si>
@@ -37,32 +38,15 @@
     <t>Hadier Rashed</t>
   </si>
   <si>
-    <t>SR1_A01</t>
-  </si>
-  <si>
-    <t>Related in QIS</t>
-  </si>
-  <si>
     <t>SR2_E01</t>
   </si>
   <si>
     <t>SR2_E02</t>
   </si>
   <si>
-    <t>this function inside eeprom module,save reading of temperature and fan speed in eeprom when turn off the system ,This function doesn’t take any argument and don’t return.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">this function inside eeprom module,Will return reading of temperature and fan speed from eeprom when turn on the system This function doesn’t take any argument . </t>
-  </si>
-  <si>
     <t>SR3_S01</t>
   </si>
   <si>
-    <t>this function inside the LCD module ,displayes first "Temperature=          "
-                                                                                           "Speed Fan     =          "
- on the screen then it  receives the value of Temperature and Speed fan in the string form (character array) but its input argument  is the pointer to this string and to  display this string on the screen, This function calls another function that displays character by character ,by incrementing the pointer thats points to the character array character by character ,it uses the Data pins of the lcd (8 pins) to output the ASCII code of each character on them.  so its basic function here to display the Temperture.this function returns none</t>
-  </si>
-  <si>
     <t>SR3_L01</t>
   </si>
   <si>
@@ -70,12 +54,6 @@
   </si>
   <si>
     <t>Column2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">this function inside the application when user pressed selector button,this function will be call Selector_Button(); Doesn't take any argument and don’t return
-First line      "-&gt;1- fan speed  " 
-Second line "2-Temperature"
-</t>
   </si>
   <si>
     <t>SR3_A02</t>
@@ -105,25 +83,9 @@
     <t>SR3_A06</t>
   </si>
   <si>
-    <t xml:space="preserve">this function inside the application,When user want to out from mode ,pressed ESC Button and called Function Out_Mode(); This function doesn’t take any argument or return.When user want to shut down system will pressed ESC button again and function TurnOff(); will called  This function doesn’t take any argument or return.  When user want to open the system will pressed ESC button and function Turnon(); called system open.
-</t>
-  </si>
-  <si>
     <t>SR3_A07</t>
   </si>
   <si>
-    <t>this function inside tha application,it will turn (on /off ) the system(LCD(2*16)-Fan) ,it doesn't take any argument or return, it will called from application</t>
-  </si>
-  <si>
-    <t>SIQ_1</t>
-  </si>
-  <si>
-    <t>SIQ_2</t>
-  </si>
-  <si>
-    <t>SIQ_3</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -140,12 +102,6 @@
   </si>
   <si>
     <t>Switch Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">this function inside the Switch module ,it will handle debouncy problem and it will take the number of pin that connected to switch and return the value of switch that connected to the pin .                                                                                          </t>
-  </si>
-  <si>
-    <t>SIQ_4</t>
   </si>
   <si>
     <t xml:space="preserve">this function inside the application,when user want to enter modes, pressed on selector button again will call Function called   Select_Modes();  function doesn’t take any argument and don’t return  then  will enter the mode that arrow stop on. And display the mode that arrow                                                                               stopped.                                                                                      Example:
@@ -158,6 +114,85 @@
   </si>
   <si>
     <t>EEprom Module</t>
+  </si>
+  <si>
+    <t>SRS document</t>
+  </si>
+  <si>
+    <t>this function inside eeprom module EEPROM_voidWriteByte(u8 Copy_u8Data,u16 Copy_u16Address),save reading of temperature and fan speed in eeprom when turn off the system ,This function take two input argumen(Data,Address) and return Error/Ok dependant on function write data in the the same address or not .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this function inside the Switch module u8 TSW_u8GetState(u8 Copy_u8SwitchIdx,*u8 Copy_u8PtrToVal) ,it will handle debouncy problem and it will take switch index and pointer to value that will return the state of the switch and return Error if the input value is out of the rangedefine Ok if the Input Value is in the range .                                                                                          </t>
+  </si>
+  <si>
+    <t>this function inside eeprom moduleEEPROM_voidInit() willnot take any argument or return iit will intialize EEprom then EEPROM_u8ReadByte(u16 *Copy_u16Address),Will read from eeprom when turn on the system, This function take one argument pointer to int (u16 *Copy_u16Address) to put the reading value on the address of the poniter and return Error/ok dependant on function Read data from same address or not .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this function inside the application will call fucntion DIO_voidInit(); it doesn't take any argumetn or return ,it will configure all pins as output or input then  when user pressed selector button,this function will be call Selector_Button(); Doesn't take any argument and don’t return
+First line      "-&gt;1- fan speed  " 
+Second line "2-Temperature"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this function inside the application,When user want to out from mode ,pressed Selector Button then Decrease button and called Function Out_Mode(); This function doesn’t take any argument or return.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>this button in the system,it will turn (on /off ) the system.</t>
+  </si>
+  <si>
+    <t>SR4_L01</t>
+  </si>
+  <si>
+    <t>this function inside the LCD module LCD_VoidString(U8* LCD_u8Ptr) ,it will take address of first place of string and dont return argument  then displayes first  "Temperature=          "
+   "Speed Fan     =          "
+ on the screen then it  receives the value of Temperature and Speed fan in the string form (character array) but its input argument  is the pointer to this string and to  display this string on the screen, This function calls another function that displays character by characterLCD_WriteData(Copy_u8Data) it take one argumet in single cought and don't return any argumet ,by incrementing the pointer thats points to the character array character by character ,it uses the Data pins of the lcd (8 pins) to output the ASCII code of each character on them.  so its basic function here to display the Temperture.this function returns none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this function inside the LCD module,LCD_voidInit() dont take  any argument or return, this Function will define to system that we use LCD 16*2 and must call first when turn on the system .
+</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Hardware Requirment</t>
+  </si>
+  <si>
+    <t>SR1_H01</t>
+  </si>
+  <si>
+    <t>SR5_A01</t>
+  </si>
+  <si>
+    <t>SR6_A01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this function inside the application,user will choose between Speed Range ,it's configurable as user want   .
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this function inside application, there is four switches in the system                                                           1- Selection Button
+   2-Increase Button
+                                                                       3-Decrease Button                                                                   4-On/Off Button 
+</t>
+  </si>
+  <si>
+    <t>SR7_H01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">system must be protable ,system has external battery that when system turnned off battery will supply the system for certain time .
+</t>
+  </si>
+  <si>
+    <t>SR8_H01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">switches of system will be Tactile (optional)
+</t>
   </si>
 </sst>
 </file>
@@ -257,18 +292,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -301,6 +336,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -310,7 +358,9 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -318,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -338,15 +388,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -356,15 +401,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -388,19 +437,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>105732</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>648651</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1438275</xdr:rowOff>
+      <xdr:rowOff>1657983</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -419,8 +468,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10896600" y="1428749"/>
-          <a:ext cx="6858957" cy="2714626"/>
+          <a:off x="10801350" y="847725"/>
+          <a:ext cx="6811326" cy="4534533"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -433,15 +482,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A5:C25" totalsRowShown="0">
-  <autoFilter ref="A5:C25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A5:C26" totalsRowShown="0">
+  <autoFilter ref="A5:C26"/>
   <sortState ref="A6:C16">
     <sortCondition ref="C5:C16"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Related in QIS"/>
+    <tableColumn id="3" name="  "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -710,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -725,200 +774,232 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="9"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="16"/>
+    </row>
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" ht="150" x14ac:dyDescent="0.4">
+      <c r="A10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="1:3" ht="105" x14ac:dyDescent="0.4">
+      <c r="A11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="B14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="18"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="14"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="18"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" ht="120" x14ac:dyDescent="0.4">
-      <c r="A10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.4">
-      <c r="A11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:3" ht="135" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="14" t="s">
+      <c r="C33" s="14"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:3" ht="105" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="19"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
+      <c r="B34" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>41</v>
-      </c>
+      <c r="C34" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Digital_Air_Conditional_Screen/Project Managment/Doc/SRS_4.xlsx
+++ b/Digital_Air_Conditional_Screen/Project Managment/Doc/SRS_4.xlsx
@@ -171,10 +171,6 @@
     <t>SR6_A01</t>
   </si>
   <si>
-    <t xml:space="preserve">this function inside the application,user will choose between Speed Range ,it's configurable as user want   .
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">this function inside application, there is four switches in the system                                                           1- Selection Button
    2-Increase Button
                                                                        3-Decrease Button                                                                   4-On/Off Button 
@@ -192,6 +188,10 @@
   </si>
   <si>
     <t xml:space="preserve">switches of system will be Tactile (optional)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this function inside the application,user will choose between Speed Range ,it's configurable as user want by calling u8 ChangeSpeed(u8 Speed) this function take one argument and return Error/ok dependant on the speed that user choose  .
 </t>
   </si>
 </sst>
@@ -761,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -920,12 +920,12 @@
       </c>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C18" s="8"/>
     </row>
@@ -934,25 +934,25 @@
         <v>43</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="C21" s="8"/>
     </row>
